--- a/Data/base de dinamica.xlsx
+++ b/Data/base de dinamica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Estudio\proyecto camara de comercio-20210502T212657Z-001\proyecto camara de comercio\dashboards\Graficas R y Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14108D4C-6953-477A-8BB6-3F94744C4C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3B5EF2-5E72-4774-BE1A-34502D07DE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3F40FA0-23DF-4D13-8853-4A3266F7DA81}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="78">
   <si>
     <t>Año</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>Grande</t>
-  </si>
-  <si>
-    <t>Organización Jurídica</t>
-  </si>
-  <si>
-    <t>Número de Empresas</t>
-  </si>
-  <si>
-    <t>Número de Empleados</t>
   </si>
   <si>
     <t>Activos</t>
@@ -288,7 +279,7 @@
     <t>Tamaño</t>
   </si>
   <si>
-    <t>2013</t>
+    <t>Organizacion</t>
   </si>
 </sst>
 </file>
@@ -2047,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>4</v>
@@ -2071,16 +2062,16 @@
         <v>3</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2423,39 +2414,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="F1" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="G1" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="H1" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="104" t="s">
-        <v>65</v>
-      </c>
       <c r="I1" s="100" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J1" s="100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="107">
         <v>23612</v>
@@ -2487,7 +2478,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="107">
         <v>505</v>
@@ -2519,7 +2510,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="107">
         <v>195</v>
@@ -2551,7 +2542,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="103" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="107">
         <v>661</v>
@@ -2583,7 +2574,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="103" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="107">
         <v>116</v>
@@ -2615,7 +2606,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="103" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="107">
         <v>3044</v>
@@ -2665,7 +2656,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="112" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="112">
         <v>2014</v>
@@ -2689,15 +2680,15 @@
         <v>2020</v>
       </c>
       <c r="I1" s="108" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J1" s="108" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="113">
         <v>108412</v>
@@ -2729,7 +2720,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="113">
         <v>3109</v>
@@ -2761,7 +2752,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="113">
         <v>1086</v>
@@ -2793,7 +2784,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="111" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="113">
         <v>8530</v>
@@ -2825,7 +2816,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="113">
         <v>3039</v>
@@ -2857,7 +2848,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="111" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="113">
         <v>13267</v>
@@ -2904,7 +2895,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="116">
         <v>2014</v>
@@ -2930,7 +2921,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="117">
         <v>18624382136249.93</v>
@@ -2956,7 +2947,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="117">
         <v>1303202434657.5278</v>
@@ -2982,7 +2973,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="115" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="117">
         <v>171701347828.87161</v>
@@ -3008,7 +2999,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="117">
         <v>4044493784346.4214</v>
@@ -3034,7 +3025,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="115" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="117">
         <v>22358069410415.938</v>
@@ -3060,7 +3051,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="117">
         <v>2250049158415.146</v>
@@ -3101,7 +3092,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="119">
         <v>2014</v>
@@ -3127,7 +3118,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="120">
         <v>16088221440495.17</v>
@@ -3153,7 +3144,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="120">
         <v>1326191535782.1172</v>
@@ -3179,7 +3170,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="120">
         <v>124255426739.21863</v>
@@ -3205,7 +3196,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="120">
         <v>1401701414840.054</v>
@@ -3231,7 +3222,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="118" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="120">
         <v>11975982814176.332</v>
@@ -3257,7 +3248,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="120">
         <v>975748880326.28455</v>
@@ -3291,7 +3282,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,13 +3292,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="C1" s="122">
+        <v>2013</v>
       </c>
       <c r="D1" s="121">
         <v>2014</v>
@@ -3333,7 +3324,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>9</v>
@@ -3365,7 +3356,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>10</v>
@@ -3397,7 +3388,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>11</v>
@@ -3429,7 +3420,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>12</v>
@@ -3461,7 +3452,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
@@ -3493,7 +3484,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>10</v>
@@ -3525,7 +3516,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>11</v>
@@ -3557,7 +3548,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>12</v>
@@ -3589,7 +3580,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="108" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>9</v>
@@ -3621,7 +3612,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="108" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>10</v>
@@ -3653,7 +3644,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="108" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>11</v>
@@ -3685,7 +3676,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="108" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>12</v>
@@ -3717,7 +3708,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>9</v>
@@ -3749,7 +3740,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>10</v>
@@ -3781,7 +3772,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>11</v>
@@ -3813,7 +3804,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>12</v>
@@ -3845,7 +3836,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>9</v>
@@ -3877,7 +3868,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>10</v>
@@ -3909,7 +3900,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>11</v>
@@ -3941,7 +3932,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>12</v>
@@ -3988,7 +3979,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
@@ -4008,7 +3999,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="24">
         <v>2013</v>
@@ -4028,7 +4019,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="24">
         <v>2014</v>
@@ -4048,7 +4039,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="24">
         <v>2015</v>
@@ -4068,7 +4059,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="24">
         <v>2016</v>
@@ -4088,7 +4079,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="24">
         <v>2017</v>
@@ -4108,7 +4099,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="24">
         <v>2018</v>
@@ -4128,7 +4119,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="24">
         <v>2019</v>
@@ -4148,7 +4139,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="24">
         <v>2020</v>
@@ -4168,7 +4159,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="24">
         <v>2013</v>
@@ -4188,7 +4179,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B11" s="24">
         <v>2014</v>
@@ -4208,7 +4199,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="24">
         <v>2015</v>
@@ -4228,7 +4219,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" s="24">
         <v>2016</v>
@@ -4248,7 +4239,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="24">
         <v>2017</v>
@@ -4268,7 +4259,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="24">
         <v>2018</v>
@@ -4288,7 +4279,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="24">
         <v>2019</v>
@@ -4308,7 +4299,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" s="24">
         <v>2020</v>
@@ -4328,7 +4319,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" s="26">
         <v>2013</v>
@@ -4348,7 +4339,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" s="26">
         <v>2014</v>
@@ -4368,7 +4359,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B20" s="26">
         <v>2015</v>
@@ -4388,7 +4379,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="26">
         <v>2016</v>
@@ -4408,7 +4399,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" s="26">
         <v>2017</v>
@@ -4428,7 +4419,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B23" s="26">
         <v>2018</v>
@@ -4448,7 +4439,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B24" s="24">
         <v>2019</v>
@@ -4468,7 +4459,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25" s="24">
         <v>2020</v>
@@ -4488,7 +4479,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" s="24">
         <v>2013</v>
@@ -4508,7 +4499,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" s="24">
         <v>2014</v>
@@ -4528,7 +4519,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B28" s="24">
         <v>2015</v>
@@ -4548,7 +4539,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" s="24">
         <v>2016</v>
@@ -4568,7 +4559,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" s="24">
         <v>2017</v>
@@ -4588,7 +4579,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31" s="24">
         <v>2018</v>
@@ -4608,7 +4599,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" s="24">
         <v>2019</v>
@@ -4628,7 +4619,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33" s="24">
         <v>2020</v>
@@ -4648,7 +4639,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B34" s="28">
         <v>2013</v>
@@ -4668,7 +4659,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="28">
         <v>2014</v>
@@ -4688,7 +4679,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B36" s="28">
         <v>2015</v>
@@ -4708,7 +4699,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" s="28">
         <v>2016</v>
@@ -4728,7 +4719,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B38" s="28">
         <v>2017</v>
@@ -4748,7 +4739,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" s="28">
         <v>2018</v>
@@ -4768,7 +4759,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B40" s="28">
         <v>2019</v>
@@ -4788,7 +4779,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" s="28">
         <v>2020</v>
@@ -4816,31 +4807,31 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="32">
         <v>252</v>
@@ -4857,7 +4848,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="32">
         <v>1</v>
@@ -4874,7 +4865,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="32">
         <v>73</v>
@@ -4891,7 +4882,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="32">
         <v>316</v>
@@ -4908,7 +4899,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="32">
         <v>27</v>
@@ -4925,7 +4916,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="32">
         <v>732</v>
@@ -4942,7 +4933,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="32">
         <v>17604</v>
@@ -4959,7 +4950,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="32">
         <v>10731</v>
@@ -4976,7 +4967,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="32">
         <v>98</v>
@@ -5008,7 +4999,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="35">
         <v>2013</v>
@@ -5038,12 +5029,12 @@
         <v>7</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="41">
         <v>1813</v>
@@ -5078,7 +5069,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="41">
         <v>420</v>
@@ -5113,7 +5104,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="41">
         <v>2</v>
@@ -5146,7 +5137,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="41">
         <v>4</v>
@@ -5169,7 +5160,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="41">
         <v>620</v>
@@ -5204,7 +5195,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="41">
         <v>430</v>
@@ -5239,7 +5230,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="41">
         <v>722</v>
@@ -5274,7 +5265,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="41">
         <v>1001</v>
@@ -5309,7 +5300,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="41">
         <v>7</v>
@@ -5344,7 +5335,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="37">
         <v>340</v>
@@ -5379,7 +5370,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="37">
         <v>2449</v>
@@ -5414,7 +5405,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="37">
         <v>10647</v>
@@ -5449,7 +5440,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="37">
         <v>1785</v>
@@ -5484,7 +5475,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="37">
         <v>193</v>
@@ -5519,7 +5510,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" s="41">
         <v>106</v>
@@ -5554,7 +5545,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="37">
         <v>78</v>
@@ -5589,7 +5580,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="37">
         <v>2597</v>
@@ -5624,7 +5615,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="41">
         <v>458</v>
@@ -5659,7 +5650,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="41">
         <v>496</v>
@@ -5694,7 +5685,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="37">
         <v>39</v>
@@ -5729,7 +5720,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="51">
         <v>1028</v>
@@ -5780,67 +5771,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="F1" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="G1" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="H1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="I1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="J1" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="K1" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="L1" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="M1" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="N1" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="O1" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="P1" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="Q1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="R1" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="87" t="s">
+      <c r="S1" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="T1" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="86" t="s">
+      <c r="U1" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="V1" s="50" t="s">
         <v>46</v>
-      </c>
-      <c r="T1" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="50" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -6390,7 +6381,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="66">
         <v>2013</v>
@@ -6422,7 +6413,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="59">
         <v>1663</v>
@@ -6454,7 +6445,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59">
         <v>412</v>
@@ -6486,7 +6477,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="59">
         <v>13981</v>
@@ -6518,7 +6509,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="59">
         <v>660</v>
@@ -6550,7 +6541,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="59">
         <v>1832</v>
@@ -6582,7 +6573,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="59">
         <v>26746</v>
@@ -6614,7 +6605,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="59">
         <v>22004</v>
@@ -6646,7 +6637,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="59">
         <v>11476</v>
@@ -6678,7 +6669,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="59">
         <v>12003</v>
@@ -6710,7 +6701,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="59">
         <v>1326</v>
@@ -6742,7 +6733,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="59">
         <v>509</v>
@@ -6774,7 +6765,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="59">
         <v>1090</v>
@@ -6806,7 +6797,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="59">
         <v>5198</v>
@@ -6838,7 +6829,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="59">
         <v>17436</v>
@@ -6870,7 +6861,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="59">
         <v>9</v>
@@ -6902,7 +6893,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="59">
         <v>345</v>
@@ -6934,7 +6925,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="59">
         <v>3112</v>
@@ -6966,7 +6957,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="59">
         <v>1606</v>
@@ -6998,7 +6989,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="62">
         <v>964</v>
@@ -7030,7 +7021,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="62">
         <v>3</v>
@@ -7058,7 +7049,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="54">
         <v>2</v>
@@ -7091,7 +7082,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="74">
         <v>2013</v>
@@ -7126,7 +7117,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="75">
         <v>353257989880.81445</v>
@@ -7161,7 +7152,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="75">
         <v>253201146594.90195</v>
@@ -7196,7 +7187,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="75">
         <v>21773428492066.184</v>
@@ -7231,7 +7222,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="75">
         <v>1071701039858.635</v>
@@ -7266,7 +7257,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="75">
         <v>387926095663.64252</v>
@@ -7301,7 +7292,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="75">
         <v>2940445331378.2173</v>
@@ -7336,7 +7327,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="75">
         <v>2734970723560.3018</v>
@@ -7371,7 +7362,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="75">
         <v>3347265790630.4902</v>
@@ -7406,7 +7397,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="75">
         <v>2023226090034.2307</v>
@@ -7441,7 +7432,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="75">
         <v>83297615795.158371</v>
@@ -7476,7 +7467,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="75">
         <v>520093409415.89746</v>
@@ -7511,7 +7502,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="75">
         <v>1088277013422.813</v>
@@ -7546,7 +7537,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="75">
         <v>952740815120.07544</v>
@@ -7581,7 +7572,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="75">
         <v>597348918874.96228</v>
@@ -7616,7 +7607,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="75">
         <v>46707390.648567118</v>
@@ -7651,7 +7642,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="75">
         <v>27263218653.446457</v>
@@ -7686,7 +7677,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="75">
         <v>427692226411.35748</v>
@@ -7721,7 +7712,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="75">
         <v>44434800639.939667</v>
@@ -7756,7 +7747,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="75">
         <v>22762428742.722473</v>
@@ -7791,7 +7782,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="75">
         <v>4566365.0075414777</v>
@@ -7826,7 +7817,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="75">
         <v>20483408.748114631</v>
@@ -7874,7 +7865,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="90">
         <v>2013</v>
@@ -7909,7 +7900,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="91">
         <v>281880039218.19757</v>
@@ -7944,7 +7935,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="93">
         <v>88550972100.437408</v>
@@ -7979,7 +7970,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="93">
         <v>15601545432142.104</v>
@@ -8014,7 +8005,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="93">
         <v>1075811623429.0121</v>
@@ -8049,7 +8040,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="93">
         <v>409204593167.79034</v>
@@ -8084,7 +8075,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="93">
         <v>2513972758607.9487</v>
@@ -8119,7 +8110,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="93">
         <v>5952458933613.6045</v>
@@ -8154,7 +8145,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="93">
         <v>1633291656219.2383</v>
@@ -8189,7 +8180,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="93">
         <v>857365839935.52795</v>
@@ -8224,7 +8215,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="93">
         <v>83014436931.591248</v>
@@ -8259,7 +8250,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="91">
         <v>38999744823.521873</v>
@@ -8294,7 +8285,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="91">
         <v>102822961806.53847</v>
@@ -8329,7 +8320,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="91">
         <v>460305321025.17346</v>
@@ -8364,7 +8355,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="91">
         <v>924400109110.9502</v>
@@ -8399,7 +8390,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="91">
         <v>13568627.450980391</v>
@@ -8434,7 +8425,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="91">
         <v>16781783322.081448</v>
@@ -8469,7 +8460,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="91">
         <v>323622740508.22772</v>
@@ -8504,7 +8495,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="91">
         <v>80780280558.604828</v>
@@ -8539,7 +8530,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="91">
         <v>40731701769.253395</v>
@@ -8574,7 +8565,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="91">
         <v>0</v>
@@ -8609,7 +8600,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="91">
         <v>0</v>

--- a/Data/base de dinamica.xlsx
+++ b/Data/base de dinamica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Estudio\proyecto camara de comercio-20210502T212657Z-001\proyecto camara de comercio\dashboards\Graficas R y Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C10A517-4926-4494-8AC3-C5103A5B8350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B4493E-C399-466E-BB64-E33A025F72FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C3F40FA0-23DF-4D13-8853-4A3266F7DA81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{C3F40FA0-23DF-4D13-8853-4A3266F7DA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico jurisdicción" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="estructura" sheetId="26" r:id="rId4"/>
     <sheet name="Actividades_1" sheetId="27" r:id="rId5"/>
     <sheet name="Actividades" sheetId="31" r:id="rId6"/>
-    <sheet name="Apuestas" sheetId="32" r:id="rId7"/>
+    <sheet name="Acti_tamaño" sheetId="38" r:id="rId7"/>
+    <sheet name="Apuestas" sheetId="32" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="77">
   <si>
     <t>Año</t>
   </si>
@@ -268,6 +269,9 @@
   </si>
   <si>
     <t>Organizacion</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD</t>
   </si>
 </sst>
 </file>
@@ -4012,7 +4016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CC192-C319-403A-8D46-F1064D9458A3}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6665,7 +6669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561C0C94-C9C3-4006-AB61-FF53690A7B6A}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" activeCellId="1" sqref="B1:W1 B24:W30"/>
     </sheetView>
   </sheetViews>
@@ -8786,6 +8790,1522 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8A352D-69A2-4067-A627-FEA365A69660}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80">
+        <v>5</v>
+      </c>
+      <c r="E2" s="80">
+        <v>429</v>
+      </c>
+      <c r="F2" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="80">
+        <v>13</v>
+      </c>
+      <c r="D3" s="80">
+        <v>29</v>
+      </c>
+      <c r="E3" s="80">
+        <v>461</v>
+      </c>
+      <c r="F3" s="80">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="80">
+        <v>6</v>
+      </c>
+      <c r="D4" s="80">
+        <v>31</v>
+      </c>
+      <c r="E4" s="80">
+        <v>1186</v>
+      </c>
+      <c r="F4" s="80">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="80">
+        <v>2</v>
+      </c>
+      <c r="D5" s="80">
+        <v>14</v>
+      </c>
+      <c r="E5" s="80">
+        <v>383</v>
+      </c>
+      <c r="F5" s="80">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="80">
+        <v>16</v>
+      </c>
+      <c r="D6" s="80">
+        <v>110</v>
+      </c>
+      <c r="E6" s="80">
+        <v>1050</v>
+      </c>
+      <c r="F6" s="80">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="80">
+        <v>8</v>
+      </c>
+      <c r="D7" s="80">
+        <v>48</v>
+      </c>
+      <c r="E7" s="80">
+        <v>1616</v>
+      </c>
+      <c r="F7" s="80">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="80">
+        <v>1</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80">
+        <v>11</v>
+      </c>
+      <c r="F8" s="80"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="80">
+        <v>2</v>
+      </c>
+      <c r="D9" s="80">
+        <v>13</v>
+      </c>
+      <c r="E9" s="80">
+        <v>176</v>
+      </c>
+      <c r="F9" s="80">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="80">
+        <v>9</v>
+      </c>
+      <c r="D10" s="80">
+        <v>35</v>
+      </c>
+      <c r="E10" s="80">
+        <v>2794</v>
+      </c>
+      <c r="F10" s="80">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="80">
+        <v>21</v>
+      </c>
+      <c r="D11" s="80">
+        <v>92</v>
+      </c>
+      <c r="E11" s="80">
+        <v>8864</v>
+      </c>
+      <c r="F11" s="80">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="80">
+        <v>38</v>
+      </c>
+      <c r="D12" s="80">
+        <v>111</v>
+      </c>
+      <c r="E12" s="80">
+        <v>1339</v>
+      </c>
+      <c r="F12" s="80">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="80">
+        <v>2</v>
+      </c>
+      <c r="D13" s="80">
+        <v>7</v>
+      </c>
+      <c r="E13" s="80">
+        <v>145</v>
+      </c>
+      <c r="F13" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="80">
+        <v>1</v>
+      </c>
+      <c r="D14" s="80">
+        <v>4</v>
+      </c>
+      <c r="E14" s="80">
+        <v>108</v>
+      </c>
+      <c r="F14" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80">
+        <v>3</v>
+      </c>
+      <c r="E15" s="80">
+        <v>18</v>
+      </c>
+      <c r="F15" s="80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="80">
+        <v>26</v>
+      </c>
+      <c r="D16" s="80">
+        <v>32</v>
+      </c>
+      <c r="E16" s="80">
+        <v>1867</v>
+      </c>
+      <c r="F16" s="80">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="80">
+        <v>3</v>
+      </c>
+      <c r="D17" s="80">
+        <v>6</v>
+      </c>
+      <c r="E17" s="80">
+        <v>533</v>
+      </c>
+      <c r="F17" s="80">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80">
+        <v>3</v>
+      </c>
+      <c r="E18" s="80">
+        <v>789</v>
+      </c>
+      <c r="F18" s="80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="80">
+        <v>3</v>
+      </c>
+      <c r="D19" s="80">
+        <v>2</v>
+      </c>
+      <c r="E19" s="80">
+        <v>71</v>
+      </c>
+      <c r="F19" s="80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="80">
+        <v>23</v>
+      </c>
+      <c r="D20" s="80">
+        <v>67</v>
+      </c>
+      <c r="E20" s="80">
+        <v>831</v>
+      </c>
+      <c r="F20" s="80">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80">
+        <v>922</v>
+      </c>
+      <c r="E21" s="80">
+        <v>622</v>
+      </c>
+      <c r="F21" s="80">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="80">
+        <v>2869</v>
+      </c>
+      <c r="D22" s="80">
+        <v>2019</v>
+      </c>
+      <c r="E22" s="80">
+        <v>1239</v>
+      </c>
+      <c r="F22" s="80">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="80">
+        <v>5852</v>
+      </c>
+      <c r="D23" s="80">
+        <v>35648</v>
+      </c>
+      <c r="E23" s="80">
+        <v>2634</v>
+      </c>
+      <c r="F23" s="80">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="80">
+        <v>17</v>
+      </c>
+      <c r="D24" s="80">
+        <v>50</v>
+      </c>
+      <c r="E24" s="80">
+        <v>391</v>
+      </c>
+      <c r="F24" s="80">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="80">
+        <v>367</v>
+      </c>
+      <c r="D25" s="80">
+        <v>315</v>
+      </c>
+      <c r="E25" s="80">
+        <v>1210</v>
+      </c>
+      <c r="F25" s="80">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="80">
+        <v>855</v>
+      </c>
+      <c r="D26" s="80">
+        <v>2113</v>
+      </c>
+      <c r="E26" s="80">
+        <v>9962</v>
+      </c>
+      <c r="F26" s="80">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="80">
+        <v>1050</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80">
+        <v>17</v>
+      </c>
+      <c r="F27" s="80"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="80">
+        <v>535</v>
+      </c>
+      <c r="D28" s="80">
+        <v>527</v>
+      </c>
+      <c r="E28" s="80">
+        <v>304</v>
+      </c>
+      <c r="F28" s="80">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="80">
+        <v>4328</v>
+      </c>
+      <c r="D29" s="80">
+        <v>3053</v>
+      </c>
+      <c r="E29" s="80">
+        <v>6669</v>
+      </c>
+      <c r="F29" s="80">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="80">
+        <v>3365</v>
+      </c>
+      <c r="D30" s="80">
+        <v>3431</v>
+      </c>
+      <c r="E30" s="80">
+        <v>13319</v>
+      </c>
+      <c r="F30" s="80">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="80">
+        <v>2944</v>
+      </c>
+      <c r="D31" s="80">
+        <v>9751</v>
+      </c>
+      <c r="E31" s="80">
+        <v>4060</v>
+      </c>
+      <c r="F31" s="80">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="80">
+        <v>1401</v>
+      </c>
+      <c r="D32" s="80">
+        <v>232</v>
+      </c>
+      <c r="E32" s="80">
+        <v>283</v>
+      </c>
+      <c r="F32" s="80">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="80">
+        <v>189</v>
+      </c>
+      <c r="D33" s="80">
+        <v>393</v>
+      </c>
+      <c r="E33" s="80">
+        <v>339</v>
+      </c>
+      <c r="F33" s="80">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80">
+        <v>146</v>
+      </c>
+      <c r="E34" s="80">
+        <v>17</v>
+      </c>
+      <c r="F34" s="80">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="80">
+        <v>4466</v>
+      </c>
+      <c r="D35" s="80">
+        <v>1546</v>
+      </c>
+      <c r="E35" s="80">
+        <v>3988</v>
+      </c>
+      <c r="F35" s="80">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="80">
+        <v>445</v>
+      </c>
+      <c r="D36" s="80">
+        <v>419</v>
+      </c>
+      <c r="E36" s="80">
+        <v>829</v>
+      </c>
+      <c r="F36" s="80">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80">
+        <v>123</v>
+      </c>
+      <c r="E37" s="80">
+        <v>1274</v>
+      </c>
+      <c r="F37" s="80">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="80">
+        <v>621</v>
+      </c>
+      <c r="D38" s="80">
+        <v>4</v>
+      </c>
+      <c r="E38" s="80">
+        <v>61</v>
+      </c>
+      <c r="F38" s="80">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="80">
+        <v>3022</v>
+      </c>
+      <c r="D39" s="80">
+        <v>5462</v>
+      </c>
+      <c r="E39" s="80">
+        <v>1983</v>
+      </c>
+      <c r="F39" s="80">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80">
+        <v>50852634557</v>
+      </c>
+      <c r="E40" s="80">
+        <v>4058859128</v>
+      </c>
+      <c r="F40" s="80">
+        <v>19456296013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="80">
+        <v>623090763668</v>
+      </c>
+      <c r="D41" s="80">
+        <v>309388466133</v>
+      </c>
+      <c r="E41" s="80">
+        <v>27352971460</v>
+      </c>
+      <c r="F41" s="80">
+        <v>163896275684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="80">
+        <v>707192482951</v>
+      </c>
+      <c r="D42" s="80">
+        <v>294169754882</v>
+      </c>
+      <c r="E42" s="80">
+        <v>29576274594</v>
+      </c>
+      <c r="F42" s="80">
+        <v>166253805116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="80">
+        <v>222568587000</v>
+      </c>
+      <c r="D43" s="80">
+        <v>158894425228</v>
+      </c>
+      <c r="E43" s="80">
+        <v>11229604964</v>
+      </c>
+      <c r="F43" s="80">
+        <v>60542083021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="80">
+        <v>1955562601885</v>
+      </c>
+      <c r="D44" s="80">
+        <v>1076449138351</v>
+      </c>
+      <c r="E44" s="80">
+        <v>41619635194</v>
+      </c>
+      <c r="F44" s="80">
+        <v>521059120853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="80">
+        <v>1465410353038</v>
+      </c>
+      <c r="D45" s="80">
+        <v>500970367161</v>
+      </c>
+      <c r="E45" s="80">
+        <v>58695728070</v>
+      </c>
+      <c r="F45" s="80">
+        <v>329297871887</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="80">
+        <v>750331447329</v>
+      </c>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80">
+        <v>484377898</v>
+      </c>
+      <c r="F46" s="80"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="80">
+        <v>212676146017</v>
+      </c>
+      <c r="D47" s="80">
+        <v>119168226823</v>
+      </c>
+      <c r="E47" s="80">
+        <v>7811618963</v>
+      </c>
+      <c r="F47" s="80">
+        <v>54802912048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="80">
+        <v>6784953631901</v>
+      </c>
+      <c r="D48" s="80">
+        <v>449446331683</v>
+      </c>
+      <c r="E48" s="80">
+        <v>46823331269</v>
+      </c>
+      <c r="F48" s="80">
+        <v>237772097049</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="80">
+        <v>1100993801886</v>
+      </c>
+      <c r="D49" s="80">
+        <v>897068975124</v>
+      </c>
+      <c r="E49" s="80">
+        <v>133197146500</v>
+      </c>
+      <c r="F49" s="80">
+        <v>569537394356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="80">
+        <v>3567048174431</v>
+      </c>
+      <c r="D50" s="80">
+        <v>1235973840101</v>
+      </c>
+      <c r="E50" s="80">
+        <v>55909824097</v>
+      </c>
+      <c r="F50" s="80">
+        <v>370041068500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="80">
+        <v>488029613543</v>
+      </c>
+      <c r="D51" s="80">
+        <v>46211870040</v>
+      </c>
+      <c r="E51" s="80">
+        <v>4191968347</v>
+      </c>
+      <c r="F51" s="80">
+        <v>17559286873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="80">
+        <v>33911069323</v>
+      </c>
+      <c r="D52" s="80">
+        <v>32549329425</v>
+      </c>
+      <c r="E52" s="80">
+        <v>4914338877</v>
+      </c>
+      <c r="F52" s="80">
+        <v>12467290013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80">
+        <v>33649154801</v>
+      </c>
+      <c r="E53" s="80">
+        <v>1237105617</v>
+      </c>
+      <c r="F53" s="80">
+        <v>11333701570</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="80">
+        <v>36752765759425</v>
+      </c>
+      <c r="D54" s="80">
+        <v>360347747611</v>
+      </c>
+      <c r="E54" s="80">
+        <v>36411761869</v>
+      </c>
+      <c r="F54" s="80">
+        <v>197114184013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="80">
+        <v>102385433103</v>
+      </c>
+      <c r="D55" s="80">
+        <v>62508384789</v>
+      </c>
+      <c r="E55" s="80">
+        <v>12095516085</v>
+      </c>
+      <c r="F55" s="80">
+        <v>47636647931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80">
+        <v>23038235588</v>
+      </c>
+      <c r="E56" s="80">
+        <v>6221944476</v>
+      </c>
+      <c r="F56" s="80">
+        <v>19142685154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="80">
+        <v>1940818153036</v>
+      </c>
+      <c r="D57" s="80">
+        <v>14897705937</v>
+      </c>
+      <c r="E57" s="80">
+        <v>2395479777</v>
+      </c>
+      <c r="F57" s="80">
+        <v>5607847741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="80">
+        <v>8146433852369</v>
+      </c>
+      <c r="D58" s="80">
+        <v>690247947966</v>
+      </c>
+      <c r="E58" s="80">
+        <v>41217348402</v>
+      </c>
+      <c r="F58" s="80">
+        <v>359272936884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80">
+        <v>90631515603</v>
+      </c>
+      <c r="E59" s="80">
+        <v>7956820620</v>
+      </c>
+      <c r="F59" s="80">
+        <v>18325543456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="80">
+        <v>438738999578</v>
+      </c>
+      <c r="D60" s="80">
+        <v>298964563822</v>
+      </c>
+      <c r="E60" s="80">
+        <v>67329079740</v>
+      </c>
+      <c r="F60" s="80">
+        <v>218008119609</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="80">
+        <v>330482406575</v>
+      </c>
+      <c r="D61" s="80">
+        <v>394731440561</v>
+      </c>
+      <c r="E61" s="80">
+        <v>69898993586</v>
+      </c>
+      <c r="F61" s="80">
+        <v>225056470126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="80">
+        <v>14032749000</v>
+      </c>
+      <c r="D62" s="80">
+        <v>17265554565</v>
+      </c>
+      <c r="E62" s="80">
+        <v>18637666670</v>
+      </c>
+      <c r="F62" s="80">
+        <v>11341853874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="80">
+        <v>322380785994</v>
+      </c>
+      <c r="D63" s="80">
+        <v>125146094671</v>
+      </c>
+      <c r="E63" s="80">
+        <v>39894119712</v>
+      </c>
+      <c r="F63" s="80">
+        <v>83395876537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="80">
+        <v>241511664410</v>
+      </c>
+      <c r="D64" s="80">
+        <v>315932660726</v>
+      </c>
+      <c r="E64" s="80">
+        <v>113471023110</v>
+      </c>
+      <c r="F64" s="80">
+        <v>221408639902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="80">
+        <v>2115414052368</v>
+      </c>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80">
+        <v>1012760301</v>
+      </c>
+      <c r="F65" s="80"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="80">
+        <v>184820500666</v>
+      </c>
+      <c r="D66" s="80">
+        <v>63903936279</v>
+      </c>
+      <c r="E66" s="80">
+        <v>15770803145</v>
+      </c>
+      <c r="F66" s="80">
+        <v>27239122009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="80">
+        <v>522399816485</v>
+      </c>
+      <c r="D67" s="80">
+        <v>325152901955</v>
+      </c>
+      <c r="E67" s="80">
+        <v>148779431790</v>
+      </c>
+      <c r="F67" s="80">
+        <v>313093104748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="80">
+        <v>1368834253842</v>
+      </c>
+      <c r="D68" s="80">
+        <v>1332704329956</v>
+      </c>
+      <c r="E68" s="80">
+        <v>1993771693801</v>
+      </c>
+      <c r="F68" s="80">
+        <v>1091481128859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="80">
+        <v>978803946562</v>
+      </c>
+      <c r="D69" s="80">
+        <v>753354143148</v>
+      </c>
+      <c r="E69" s="80">
+        <v>138440588255</v>
+      </c>
+      <c r="F69" s="80">
+        <v>341073085395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="80">
+        <v>379900369395</v>
+      </c>
+      <c r="D70" s="80">
+        <v>42059093520</v>
+      </c>
+      <c r="E70" s="80">
+        <v>9394284837</v>
+      </c>
+      <c r="F70" s="80">
+        <v>46376400192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="80">
+        <v>18187517810</v>
+      </c>
+      <c r="D71" s="80">
+        <v>24849171713</v>
+      </c>
+      <c r="E71" s="80">
+        <v>10038204196</v>
+      </c>
+      <c r="F71" s="80">
+        <v>18328288814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80">
+        <v>34779321290</v>
+      </c>
+      <c r="E72" s="80">
+        <v>1978080016</v>
+      </c>
+      <c r="F72" s="80">
+        <v>4247673353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="80">
+        <v>20384668302410</v>
+      </c>
+      <c r="D73" s="80">
+        <v>337980756936</v>
+      </c>
+      <c r="E73" s="80">
+        <v>92504570536</v>
+      </c>
+      <c r="F73" s="80">
+        <v>252917993588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="80">
+        <v>23226365334</v>
+      </c>
+      <c r="D74" s="80">
+        <v>32946400776</v>
+      </c>
+      <c r="E74" s="80">
+        <v>18735826573</v>
+      </c>
+      <c r="F74" s="80">
+        <v>47405723547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80">
+        <v>9765736669</v>
+      </c>
+      <c r="E75" s="80">
+        <v>17390423883</v>
+      </c>
+      <c r="F75" s="80">
+        <v>18907203936</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="80">
+        <v>1243869002087</v>
+      </c>
+      <c r="D76" s="80">
+        <v>551552005</v>
+      </c>
+      <c r="E76" s="80">
+        <v>1544963784</v>
+      </c>
+      <c r="F76" s="80">
+        <v>15732503376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="80">
+        <v>1917667815057</v>
+      </c>
+      <c r="D77" s="80">
+        <v>692696500926</v>
+      </c>
+      <c r="E77" s="80">
+        <v>96964517604</v>
+      </c>
+      <c r="F77" s="80">
+        <v>390042081684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBB81E4-2A45-45B8-BD43-40886D51F8FE}">
   <dimension ref="A1:K25"/>
   <sheetViews>
